--- a/persistence/data/laserJobs2.xlsx
+++ b/persistence/data/laserJobs2.xlsx
@@ -332,7 +332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
@@ -626,6 +626,120 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/persistence/data/laserJobs2.xlsx
+++ b/persistence/data/laserJobs2.xlsx
@@ -332,7 +332,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
@@ -498,21 +498,13 @@
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>david</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-01-11</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ceramic</t>
-        </is>
-      </c>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Vector</t>
@@ -556,7 +548,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>mmmmmmmmmMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMMM</t>
+          <t>Enter here useful comments for the future</t>
         </is>
       </c>
     </row>
@@ -564,19 +556,9 @@
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>david</t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>2020-01-14</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>pmma</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -686,13 +668,11 @@
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>2020-01-14</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Vector</t>
@@ -735,6 +715,118 @@
         <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>Enter here useful comments for the future</t>
         </is>
